--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rampiggy\Documents\UiPath\uipath-automation-10\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BDB3C9-9AB4-4CCF-ACDA-E52E10A3C599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-10980" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -88,14 +88,6 @@
   </si>
   <si>
     <t>Framework</t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
@@ -122,13 +114,64 @@
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>EmailsQueue</t>
+  </si>
+  <si>
+    <t>Data\Input\Emails.xlsx</t>
+  </si>
+  <si>
+    <t>EmailsFilePath</t>
+  </si>
+  <si>
+    <t>Relative file path to the Emails.xlsx file</t>
+  </si>
+  <si>
+    <t>MPLURAD1@depaul.edu</t>
+  </si>
+  <si>
+    <t>EmailAccount</t>
+  </si>
+  <si>
+    <t>EmailSenderName</t>
+  </si>
+  <si>
+    <t>Miles Plurad</t>
+  </si>
+  <si>
+    <t>Email address for "Account" property within send outlook mail message activity</t>
+  </si>
+  <si>
+    <t>EmailSubject</t>
+  </si>
+  <si>
+    <t>EmailBody</t>
+  </si>
+  <si>
+    <t>P2 and P3 Invitations</t>
+  </si>
+  <si>
+    <t>Orchestrator queue Name. Ensure the queue unique property is not checked.</t>
+  </si>
+  <si>
+    <t>Here is the link to P2 and P3 presentations: https://github.com/mplurad/uipath-automation-10</t>
+  </si>
+  <si>
+    <t>Email message for "Body" property within send outlook mail message activity</t>
+  </si>
+  <si>
+    <t>Email subject for "Subject" property within send outlook mail message activity</t>
+  </si>
+  <si>
+    <t>Sender name for "SendOnBehalfOfName" property within send outlook mail message activity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,6 +195,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,10 +219,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -183,8 +233,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,16 +551,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.59765625" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.3984375" customWidth="1"/>
+    <col min="4" max="26" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -547,17 +599,17 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.5">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -565,7 +617,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1572,14 +1624,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.3984375" customWidth="1"/>
+    <col min="4" max="26" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1616,7 +1670,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1648,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1670,7 +1724,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1681,7 +1735,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1692,31 +1746,83 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="14.25" customHeight="1">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2682,16 +2788,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.86328125" customWidth="1"/>
+    <col min="2" max="2" width="30.1328125" customWidth="1"/>
+    <col min="3" max="3" width="60.265625" customWidth="1"/>
+    <col min="4" max="26" width="65.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2702,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rampiggy\Documents\UiPath\uipath-automation-10\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BDB3C9-9AB4-4CCF-ACDA-E52E10A3C599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2314AEB0-9571-4FF2-8C96-75CA2FA67E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-10980" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Sender name for "SendOnBehalfOfName" property within send outlook mail message activity</t>
+  </si>
+  <si>
+    <t>AzureApplicationId</t>
+  </si>
+  <si>
+    <t>AzureTenantId</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2788,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2836,8 +2842,22 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
